--- a/ASIA.xlsx
+++ b/ASIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.0.22\Home$\alice.cade\Documents\R\SCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E56604-AD6F-44E9-BA2A-70E816F1E13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3ED5E2-9EA0-42BB-8BDD-4DB6319D5C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1364,7 +1364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ER67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="DN1" sqref="DN1"/>
       <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
@@ -34481,8 +34481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A783E3-8BF2-4795-9CA9-C1F3757EBA5C}">
   <dimension ref="A1:ER45"/>
   <sheetViews>
-    <sheetView topLeftCell="AU21" workbookViewId="0">
-      <selection activeCell="BQ10" sqref="BQ10:BQ11"/>
+    <sheetView tabSelected="1" topLeftCell="DU1" workbookViewId="0">
+      <selection activeCell="EC1" sqref="EC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
